--- a/exports/prev_elo_time_table.xlsx
+++ b/exports/prev_elo_time_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1300,6 +1300,202 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
     </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="n">
+        <v>1227.640338358163</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>1205.101394671996</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1300.792966980156</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>1173.622844683383</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1306.939512229892</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1210.231062826311</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>1167.476299433647</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1222.510670203849</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="n">
+        <v>1233.268980622833</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>1156.524349367828</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1283.90159443337</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>1233.462620269667</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="n">
+        <v>1242.596162400927</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>1222.150502193288</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1295.213712509749</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>1147.197167589735</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1300.308918504197</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1225.362651103099</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>1142.101961595287</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1239.384013491115</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="n">
+        <v>1215.906131994833</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>1134.177109754972</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1309.765437612463</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>1247.308865331431</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1289.146991311059</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>1267.927311632835</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1271.848433724673</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>1285.225869219221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/exports/prev_elo_time_table.xlsx
+++ b/exports/prev_elo_time_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1496,6 +1496,230 @@
         <v>1285.225869219221</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1257.4853757199</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1224.880176528974</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1270.23859656297</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1212.126955685904</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>1125.203065220831</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1299.588927223994</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>1121.224899958969</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1303.567092485856</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1280.952302572994</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>1307.251870859551</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1298.676063697958</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>1289.528109734587</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="n">
+        <v>1201.41324967588</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>1117.540121585274</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>1179.237848402371</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>1139.715522858783</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>1191.424709249573</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>1127.528662011581</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1313.397839381893</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>1148.256017276127</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1286.74165386123</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>1174.91220279679</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1293.761028525477</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>1167.892828132543</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>1170.697353985027</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>1274.806334050652</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>1163.206768803316</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>1282.296919232363</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1299.978361246249</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>1288.892631681187</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1314.535659983174</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>1274.335332944262</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/exports/prev_elo_time_table.xlsx
+++ b/exports/prev_elo_time_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jack Massingill</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Paul Bartenfeld</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Roman Ramirez</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Will Simpson</t>
         </is>
@@ -470,7 +475,8 @@
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -480,13 +486,14 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>1200</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>1200</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -497,10 +504,11 @@
         <v>1184.5</v>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
         <v>1215.5</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -508,11 +516,12 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
         <v>1184.5</v>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
         <v>1215.5</v>
       </c>
     </row>
@@ -524,11 +533,12 @@
       <c r="C6" t="n">
         <v>1171.614196824696</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
         <v>1171.614196824696</v>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -537,10 +547,11 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
         <v>1228.385803175304</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>1228.385803175304</v>
       </c>
     </row>
@@ -554,7 +565,8 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
         <v>1212.885803175304</v>
       </c>
     </row>
@@ -564,13 +576,14 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
         <v>1156.114196824696</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>1243.885803175304</v>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -581,10 +594,11 @@
         <v>1173.79391302851</v>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
         <v>1252.442551950796</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -592,11 +606,12 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
         <v>1147.557448049204</v>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
         <v>1226.20608697149</v>
       </c>
     </row>
@@ -608,11 +623,12 @@
       <c r="C12" t="n">
         <v>1195.602561453137</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
         <v>1138.366096473831</v>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -621,10 +637,11 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
         <v>1230.633903526169</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>1235.397438546863</v>
       </c>
     </row>
@@ -635,10 +652,11 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
         <v>1246.539390041178</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>1219.491952031853</v>
       </c>
     </row>
@@ -649,10 +667,11 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
         <v>1228.753301184134</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1237.278040888898</v>
       </c>
     </row>
@@ -663,10 +682,11 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
         <v>1244.978588378909</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>1221.052753694122</v>
       </c>
     </row>
@@ -679,10 +699,11 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
         <v>1258.453132506603</v>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -690,11 +711,12 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
         <v>1127.584881353908</v>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
         <v>1207.578209566428</v>
       </c>
     </row>
@@ -708,7 +730,8 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
         <v>1216.674325114043</v>
       </c>
     </row>
@@ -721,10 +744,11 @@
         <v>1206.383776573061</v>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
         <v>1238.140550775913</v>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -736,7 +760,8 @@
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
         <v>1232.484053969892</v>
       </c>
     </row>
@@ -748,11 +773,12 @@
         <v>1204.502852874841</v>
       </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
         <v>1118.488765806292</v>
       </c>
-      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -762,11 +788,12 @@
       <c r="C23" t="n">
         <v>1209.734732535278</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
         <v>1140.81188852353</v>
       </c>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -775,10 +802,11 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
         <v>1219.963797403774</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>1247.309851379815</v>
       </c>
     </row>
@@ -788,13 +816,14 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
         <v>1130.914964684926</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1237.774752046058</v>
       </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -809,6 +838,7 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -819,10 +849,11 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
         <v>1214.095007730203</v>
       </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -830,11 +861,12 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
         <v>1154.594709000781</v>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
         <v>1229.49889673753</v>
       </c>
     </row>
@@ -848,7 +880,8 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
         <v>1238.958454220562</v>
       </c>
     </row>
@@ -861,10 +894,11 @@
         <v>1200.98714466709</v>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
         <v>1228.467099370735</v>
       </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -876,7 +910,8 @@
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="n">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
         <v>1219.107910197629</v>
       </c>
     </row>
@@ -888,11 +923,12 @@
         <v>1206.302694246797</v>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
         <v>1145.135151517749</v>
       </c>
-      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -902,11 +938,12 @@
       <c r="C33" t="n">
         <v>1203.334674336196</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
         <v>1134.655587160021</v>
       </c>
-      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -915,10 +952,11 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="n">
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
         <v>1210.644998740897</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>1234.58248115836</v>
       </c>
     </row>
@@ -928,13 +966,14 @@
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
         <v>1155.740612558742</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>1197.171429387179</v>
       </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -949,6 +988,7 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -960,7 +1000,8 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
         <v>1248.056050512078</v>
       </c>
     </row>
@@ -974,7 +1015,8 @@
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
         <v>1259.609012361011</v>
       </c>
     </row>
@@ -986,11 +1028,12 @@
         <v>1198.376832101728</v>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
         <v>1174.70846872949</v>
       </c>
-      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1001,10 +1044,11 @@
         <v>1179.322065424552</v>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
         <v>1178.203573216432</v>
       </c>
-      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1012,13 +1056,14 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
         <v>1161.212373226399</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>1162.798803187743</v>
       </c>
-      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1030,7 +1075,8 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
         <v>1269.389060527798</v>
       </c>
     </row>
@@ -1041,10 +1087,11 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="n">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
         <v>1178.163734069352</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>1249.148681065664</v>
       </c>
     </row>
@@ -1056,11 +1103,12 @@
       <c r="C44" t="n">
         <v>1194.72683545324</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
         <v>1145.847442344791</v>
       </c>
-      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1072,7 +1120,8 @@
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="n">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
         <v>1258.893604080596</v>
       </c>
     </row>
@@ -1085,10 +1134,11 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="n">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
         <v>1168.41881105442</v>
       </c>
-      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1103,6 +1153,7 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1110,11 +1161,12 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="n">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
         <v>1134.411948636238</v>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="n">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
         <v>1239.025420633482</v>
       </c>
     </row>
@@ -1126,11 +1178,12 @@
         <v>1256.51107363726</v>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="n">
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
         <v>1126.952802690425</v>
       </c>
-      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1141,10 +1194,11 @@
         <v>1211.920605228047</v>
       </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
         <v>1158.130951864973</v>
       </c>
-      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1152,13 +1206,14 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
         <v>1120.934523817579</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>1147.081954713728</v>
       </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1170,7 +1225,8 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="n">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
         <v>1246.484566579295</v>
       </c>
     </row>
@@ -1181,10 +1237,11 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
         <v>1160.370881836214</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>1232.347132789897</v>
       </c>
     </row>
@@ -1196,11 +1253,12 @@
       <c r="C54" t="n">
         <v>1222.969602379292</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
         <v>1107.645596695093</v>
       </c>
-      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1212,7 +1270,8 @@
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="n">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
         <v>1211.01943697701</v>
       </c>
     </row>
@@ -1225,10 +1284,11 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
         <v>1181.698577649102</v>
       </c>
-      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1243,6 +1303,7 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1250,11 +1311,12 @@
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="n">
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
         <v>1100.832495437686</v>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="n">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
         <v>1197.111354540612</v>
       </c>
     </row>
@@ -1271,6 +1333,7 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1285,6 +1348,7 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1299,6 +1363,7 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1310,7 +1375,8 @@
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="n">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
         <v>1205.101394671996</v>
       </c>
     </row>
@@ -1323,10 +1389,11 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="n">
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
         <v>1173.622844683383</v>
       </c>
-      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1341,6 +1408,7 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1349,10 +1417,11 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="n">
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
         <v>1167.476299433647</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>1222.510670203849</v>
       </c>
     </row>
@@ -1365,10 +1434,11 @@
         <v>1233.268980622833</v>
       </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="n">
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
         <v>1156.524349367828</v>
       </c>
-      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1380,7 +1450,8 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="n">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
         <v>1233.462620269667</v>
       </c>
     </row>
@@ -1394,7 +1465,8 @@
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="n">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
         <v>1222.150502193288</v>
       </c>
     </row>
@@ -1407,10 +1479,11 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="n">
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
         <v>1147.197167589735</v>
       </c>
-      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1425,6 +1498,7 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1433,10 +1507,11 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="n">
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
         <v>1142.101961595287</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>1239.384013491115</v>
       </c>
     </row>
@@ -1449,10 +1524,11 @@
         <v>1215.906131994833</v>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
         <v>1134.177109754972</v>
       </c>
-      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1464,7 +1540,8 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="n">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
         <v>1247.308865331431</v>
       </c>
     </row>
@@ -1478,7 +1555,8 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="n">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
         <v>1267.927311632835</v>
       </c>
     </row>
@@ -1492,7 +1570,8 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="n">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
         <v>1285.225869219221</v>
       </c>
     </row>
@@ -1509,6 +1588,7 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1523,6 +1603,7 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1531,10 +1612,11 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="n">
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
         <v>1125.203065220831</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>1299.588927223994</v>
       </c>
     </row>
@@ -1545,10 +1627,11 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="n">
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
         <v>1121.224899958969</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>1303.567092485856</v>
       </c>
     </row>
@@ -1562,7 +1645,8 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="n">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
         <v>1307.251870859551</v>
       </c>
     </row>
@@ -1576,7 +1660,8 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="n">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
         <v>1289.528109734587</v>
       </c>
     </row>
@@ -1589,10 +1674,11 @@
         <v>1201.41324967588</v>
       </c>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="n">
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
         <v>1117.540121585274</v>
       </c>
-      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -1603,10 +1689,11 @@
         <v>1179.237848402371</v>
       </c>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="n">
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
         <v>1139.715522858783</v>
       </c>
-      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -1617,10 +1704,11 @@
         <v>1191.424709249573</v>
       </c>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="n">
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
         <v>1127.528662011581</v>
       </c>
-      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -1631,10 +1719,11 @@
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="n">
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="n">
         <v>1148.256017276127</v>
       </c>
-      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -1645,10 +1734,11 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="n">
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
         <v>1174.91220279679</v>
       </c>
-      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -1659,10 +1749,11 @@
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="n">
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="n">
         <v>1167.892828132543</v>
       </c>
-      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -1674,7 +1765,8 @@
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="n">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
         <v>1274.806334050652</v>
       </c>
     </row>
@@ -1688,7 +1780,8 @@
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="n">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
         <v>1282.296919232363</v>
       </c>
     </row>
@@ -1702,7 +1795,8 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="n">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
         <v>1288.892631681187</v>
       </c>
     </row>
@@ -1716,9 +1810,355 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="n">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
         <v>1274.335332944262</v>
       </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>1156.611056354492</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>1262.203517230824</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>1161.675495411771</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="n">
+        <v>1149.212662017431</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1181.284322268124</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1326.667475696612</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>1269.601911567885</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1337.46189689144</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>1163.08156608217</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="n">
+        <v>1167.415418203385</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>1180.391173143648</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1341.440272874926</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>1194.788252657442</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>1159.103190098684</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>1258.807490373056</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>1220.62889786158</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1266.576388154093</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1315.599627670788</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1153.01833868959</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="n">
+        <v>1148.568385827615</v>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>1247.245311731566</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>1151.334292317647</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>1239.959974284107</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="n">
+        <v>1171.733591860926</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1142.835547645231</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1320.049580532763</v>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>1224.080105698255</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1328.059795180905</v>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="n">
+        <v>1129.77553806293</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>1184.793601443227</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>1248.458718956524</v>
+      </c>
+      <c r="G107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1331.212782845901</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="n">
+        <v>1258.748796781334</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="n">
+        <v>1126.622550397934</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>1216.069891050113</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>1280.112113288173</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1193.513064710296</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1309.849466339062</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1174.503523618416</v>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="n">
+        <v>1168.787638464166</v>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>1184.876284539817</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="n">
+        <v>1149.179376737751</v>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>1288.748893458652</v>
+      </c>
+      <c r="G113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="n">
+        <v>1154.65391009839</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1143.676650390413</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/prev_elo_time_table.xlsx
+++ b/exports/prev_elo_time_table.xlsx
@@ -2119,29 +2119,29 @@
       <c r="A112" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="n">
-        <v>1168.787638464166</v>
-      </c>
+      <c r="B112" t="n">
+        <v>1315.565351493312</v>
+      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="n">
-        <v>1184.876284539817</v>
-      </c>
+      <c r="F112" t="n">
+        <v>1288.748893458652</v>
+      </c>
+      <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B113" t="inlineStr"/>
+      <c r="B113" t="n">
+        <v>1297.79850462576</v>
+      </c>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="n">
-        <v>1149.179376737751</v>
-      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>1288.748893458652</v>
+        <v>1306.515740326204</v>
       </c>
       <c r="G113" t="inlineStr"/>
     </row>
@@ -2149,15 +2149,15 @@
       <c r="A114" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="n">
-        <v>1154.65391009839</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1143.676650390413</v>
-      </c>
+      <c r="B114" t="n">
+        <v>1314.04014470052</v>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
+      <c r="F114" t="n">
+        <v>1290.274100251444</v>
+      </c>
       <c r="G114" t="inlineStr"/>
     </row>
   </sheetData>

--- a/exports/prev_elo_time_table.xlsx
+++ b/exports/prev_elo_time_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,15 +451,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Lilith Karyadi</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Paul Bartenfeld</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Roman Ramirez</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Will Simpson</t>
         </is>
@@ -476,7 +481,8 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -487,13 +493,14 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>1200</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>1200</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -505,10 +512,11 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
         <v>1215.5</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -517,11 +525,12 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
         <v>1184.5</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
         <v>1215.5</v>
       </c>
     </row>
@@ -534,11 +543,12 @@
         <v>1171.614196824696</v>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
         <v>1171.614196824696</v>
       </c>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -548,10 +558,11 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
         <v>1228.385803175304</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>1228.385803175304</v>
       </c>
     </row>
@@ -566,7 +577,8 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
         <v>1212.885803175304</v>
       </c>
     </row>
@@ -577,13 +589,14 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
         <v>1156.114196824696</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>1243.885803175304</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -595,10 +608,11 @@
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
         <v>1252.442551950796</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -607,11 +621,12 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
         <v>1147.557448049204</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
         <v>1226.20608697149</v>
       </c>
     </row>
@@ -624,11 +639,12 @@
         <v>1195.602561453137</v>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
         <v>1138.366096473831</v>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -638,10 +654,11 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
         <v>1230.633903526169</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>1235.397438546863</v>
       </c>
     </row>
@@ -653,10 +670,11 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
         <v>1246.539390041178</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>1219.491952031853</v>
       </c>
     </row>
@@ -668,10 +686,11 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
         <v>1228.753301184134</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>1237.278040888898</v>
       </c>
     </row>
@@ -683,10 +702,11 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
         <v>1244.978588378909</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>1221.052753694122</v>
       </c>
     </row>
@@ -700,10 +720,11 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
         <v>1258.453132506603</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -712,11 +733,12 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
         <v>1127.584881353908</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
         <v>1207.578209566428</v>
       </c>
     </row>
@@ -731,7 +753,8 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
         <v>1216.674325114043</v>
       </c>
     </row>
@@ -745,10 +768,11 @@
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
         <v>1238.140550775913</v>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -761,7 +785,8 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
         <v>1232.484053969892</v>
       </c>
     </row>
@@ -774,11 +799,12 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
         <v>1118.488765806292</v>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -789,11 +815,12 @@
         <v>1209.734732535278</v>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
         <v>1140.81188852353</v>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -803,10 +830,11 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="n">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
         <v>1219.963797403774</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>1247.309851379815</v>
       </c>
     </row>
@@ -817,13 +845,14 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
         <v>1130.914964684926</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>1237.774752046058</v>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -839,6 +868,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -850,10 +880,11 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
         <v>1214.095007730203</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -862,11 +893,12 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="n">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
         <v>1154.594709000781</v>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="n">
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
         <v>1229.49889673753</v>
       </c>
     </row>
@@ -881,7 +913,8 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="n">
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
         <v>1238.958454220562</v>
       </c>
     </row>
@@ -895,10 +928,11 @@
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="n">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
         <v>1228.467099370735</v>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -911,7 +945,8 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="n">
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
         <v>1219.107910197629</v>
       </c>
     </row>
@@ -924,11 +959,12 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="n">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
         <v>1145.135151517749</v>
       </c>
-      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -939,11 +975,12 @@
         <v>1203.334674336196</v>
       </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="n">
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
         <v>1134.655587160021</v>
       </c>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -953,10 +990,11 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="n">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
         <v>1210.644998740897</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>1234.58248115836</v>
       </c>
     </row>
@@ -967,13 +1005,14 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
         <v>1155.740612558742</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>1197.171429387179</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -989,6 +1028,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1001,7 +1041,8 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="n">
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
         <v>1248.056050512078</v>
       </c>
     </row>
@@ -1016,7 +1057,8 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="n">
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
         <v>1259.609012361011</v>
       </c>
     </row>
@@ -1029,11 +1071,12 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="n">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
         <v>1174.70846872949</v>
       </c>
-      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1045,10 +1088,11 @@
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="n">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
         <v>1178.203573216432</v>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1057,13 +1101,14 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="n">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
         <v>1161.212373226399</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>1162.798803187743</v>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1076,7 +1121,8 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="n">
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
         <v>1269.389060527798</v>
       </c>
     </row>
@@ -1088,10 +1134,11 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="n">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
         <v>1178.163734069352</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>1249.148681065664</v>
       </c>
     </row>
@@ -1104,11 +1151,12 @@
         <v>1194.72683545324</v>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
         <v>1145.847442344791</v>
       </c>
-      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1121,7 +1169,8 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="n">
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
         <v>1258.893604080596</v>
       </c>
     </row>
@@ -1135,10 +1184,11 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="n">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
         <v>1168.41881105442</v>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1154,6 +1204,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1162,11 +1213,12 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="n">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
         <v>1134.411948636238</v>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="n">
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
         <v>1239.025420633482</v>
       </c>
     </row>
@@ -1179,11 +1231,12 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="n">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
         <v>1126.952802690425</v>
       </c>
-      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1195,10 +1248,11 @@
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="n">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
         <v>1158.130951864973</v>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1207,13 +1261,14 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="n">
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
         <v>1120.934523817579</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>1147.081954713728</v>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1226,7 +1281,8 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="n">
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
         <v>1246.484566579295</v>
       </c>
     </row>
@@ -1238,10 +1294,11 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="n">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
         <v>1160.370881836214</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>1232.347132789897</v>
       </c>
     </row>
@@ -1254,11 +1311,12 @@
         <v>1222.969602379292</v>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="n">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
         <v>1107.645596695093</v>
       </c>
-      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1271,7 +1329,8 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="n">
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
         <v>1211.01943697701</v>
       </c>
     </row>
@@ -1285,10 +1344,11 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="n">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
         <v>1181.698577649102</v>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1304,6 +1364,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1312,11 +1373,12 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="n">
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
         <v>1100.832495437686</v>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="n">
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
         <v>1197.111354540612</v>
       </c>
     </row>
@@ -1334,6 +1396,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1349,6 +1412,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1364,6 +1428,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1376,7 +1441,8 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="n">
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
         <v>1205.101394671996</v>
       </c>
     </row>
@@ -1390,10 +1456,11 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="n">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
         <v>1173.622844683383</v>
       </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1409,6 +1476,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1418,10 +1486,11 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
         <v>1167.476299433647</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>1222.510670203849</v>
       </c>
     </row>
@@ -1435,10 +1504,11 @@
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="n">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
         <v>1156.524349367828</v>
       </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1451,7 +1521,8 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="n">
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
         <v>1233.462620269667</v>
       </c>
     </row>
@@ -1466,7 +1537,8 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="n">
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="n">
         <v>1222.150502193288</v>
       </c>
     </row>
@@ -1480,10 +1552,11 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="n">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
         <v>1147.197167589735</v>
       </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1499,6 +1572,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1508,10 +1582,11 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="n">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
         <v>1142.101961595287</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>1239.384013491115</v>
       </c>
     </row>
@@ -1525,10 +1600,11 @@
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="n">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
         <v>1134.177109754972</v>
       </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1541,7 +1617,8 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="n">
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
         <v>1247.308865331431</v>
       </c>
     </row>
@@ -1556,7 +1633,8 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="n">
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="n">
         <v>1267.927311632835</v>
       </c>
     </row>
@@ -1571,7 +1649,8 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="n">
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
         <v>1285.225869219221</v>
       </c>
     </row>
@@ -1589,6 +1668,7 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1604,6 +1684,7 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1613,10 +1694,11 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="n">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
         <v>1125.203065220831</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>1299.588927223994</v>
       </c>
     </row>
@@ -1628,10 +1710,11 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="n">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
         <v>1121.224899958969</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>1303.567092485856</v>
       </c>
     </row>
@@ -1646,7 +1729,8 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" t="n">
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="n">
         <v>1307.251870859551</v>
       </c>
     </row>
@@ -1661,7 +1745,8 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" t="n">
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="n">
         <v>1289.528109734587</v>
       </c>
     </row>
@@ -1675,10 +1760,11 @@
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="n">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
         <v>1117.540121585274</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -1690,10 +1776,11 @@
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="n">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
         <v>1139.715522858783</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -1705,10 +1792,11 @@
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="n">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
         <v>1127.528662011581</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -1720,10 +1808,11 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="n">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
         <v>1148.256017276127</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -1735,10 +1824,11 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="n">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
         <v>1174.91220279679</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -1750,10 +1840,11 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="n">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
         <v>1167.892828132543</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -1766,7 +1857,8 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" t="n">
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="n">
         <v>1274.806334050652</v>
       </c>
     </row>
@@ -1781,7 +1873,8 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="n">
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
         <v>1282.296919232363</v>
       </c>
     </row>
@@ -1796,7 +1889,8 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="n">
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="n">
         <v>1288.892631681187</v>
       </c>
     </row>
@@ -1811,7 +1905,8 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="n">
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="n">
         <v>1274.335332944262</v>
       </c>
     </row>
@@ -1826,7 +1921,8 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="n">
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="n">
         <v>1262.203517230824</v>
       </c>
     </row>
@@ -1840,10 +1936,11 @@
         <v>1200</v>
       </c>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="n">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
         <v>1161.675495411771</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -1859,6 +1956,7 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -1871,7 +1969,8 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="n">
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="n">
         <v>1269.601911567885</v>
       </c>
     </row>
@@ -1889,6 +1988,7 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -1900,10 +2000,11 @@
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="n">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
         <v>1180.391173143648</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -1915,10 +2016,11 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="n">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="n">
         <v>1194.788252657442</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -1931,7 +2033,8 @@
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="n">
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="n">
         <v>1258.807490373056</v>
       </c>
     </row>
@@ -1943,10 +2046,11 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="n">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
         <v>1220.62889786158</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>1266.576388154093</v>
       </c>
     </row>
@@ -1964,6 +2068,7 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -1976,7 +2081,8 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="n">
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="n">
         <v>1247.245311731566</v>
       </c>
     </row>
@@ -1990,10 +2096,11 @@
         <v>1151.334292317647</v>
       </c>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="n">
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="n">
         <v>1239.959974284107</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2009,6 +2116,7 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2021,7 +2129,8 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="n">
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="n">
         <v>1224.080105698255</v>
       </c>
     </row>
@@ -2039,6 +2148,7 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2050,10 +2160,11 @@
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="n">
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="n">
         <v>1248.458718956524</v>
       </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2065,10 +2176,11 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="n">
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="n">
         <v>1258.748796781334</v>
       </c>
-      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2081,7 +2193,8 @@
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
-      <c r="G109" t="n">
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="n">
         <v>1216.069891050113</v>
       </c>
     </row>
@@ -2093,10 +2206,11 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="n">
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
         <v>1280.112113288173</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>1193.513064710296</v>
       </c>
     </row>
@@ -2114,6 +2228,7 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2125,10 +2240,11 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="n">
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
         <v>1288.748893458652</v>
       </c>
-      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2140,10 +2256,11 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="n">
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
         <v>1306.515740326204</v>
       </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2155,10 +2272,219 @@
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="n">
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
         <v>1290.274100251444</v>
       </c>
-      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>1276.786181976367</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1221.675794597088</v>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>1255.110387379279</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>1168.787638464166</v>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1184.876284539817</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="n">
+        <v>1185.65391009839</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="n">
+        <v>1168.010012905592</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="n">
+        <v>1168.65635149142</v>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="n">
+        <v>1185.007571512562</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="n">
+        <v>1239.990917068501</v>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="n">
+        <v>1168.11912022739</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="n">
+        <v>1218.670859188508</v>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="n">
+        <v>1189.439178107384</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="n">
+        <v>1185.544802776592</v>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>1236.795264907866</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="n">
+        <v>1205.296655555965</v>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>1217.043412128493</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="n">
+        <v>1221.795417467437</v>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="n">
+        <v>1200.703174066563</v>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="n">
+        <v>1204.507564894654</v>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="n">
+        <v>1217.991026639347</v>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="n">
+        <v>1190.153485269737</v>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="n">
+        <v>1232.345106264263</v>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="n">
+        <v>1244.315773683706</v>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="n">
+        <v>1207.406863229328</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/prev_elo_time_table.xlsx
+++ b/exports/prev_elo_time_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2459,16 +2459,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="n">
-        <v>1190.153485269737</v>
-      </c>
+      <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
-      <c r="E126" t="n">
-        <v>1232.345106264263</v>
-      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
+      <c r="G126" t="n">
+        <v>1200.544650217021</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1207.406863229328</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2477,13 +2477,45 @@
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
-      <c r="E127" t="n">
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>1185.628639295045</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1222.322874151305</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="n">
+        <v>1190.153485269737</v>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="n">
+        <v>1232.345106264263</v>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="n">
         <v>1244.315773683706</v>
       </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="n">
-        <v>1207.406863229328</v>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="n">
+        <v>1234.740270956793</v>
       </c>
     </row>
   </sheetData>
